--- a/includes/resepts.xlsx
+++ b/includes/resepts.xlsx
@@ -13,17 +13,26 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1660490174" val="1050" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1660490174" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1660490174"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1660490174"/>
+      <pm:revision xmlns:pm="smNativeData" day="1660495317" val="1050" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1660495317" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1660495317"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1660495317"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+  <si>
+    <t>рецепт</t>
+  </si>
+  <si>
+    <t>состовляющие</t>
+  </si>
+  <si>
+    <t>цена</t>
+  </si>
   <si>
     <t>red</t>
   </si>
@@ -165,7 +174,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1660490174" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1660495317" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -187,7 +196,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1660490174" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1660495317" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -198,7 +207,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1660490174" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1660495317" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -220,7 +229,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1660490174"/>
+          <pm:border xmlns:pm="smNativeData" id="1660495317"/>
         </ext>
       </extLst>
     </border>
@@ -239,7 +248,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1660490174"/>
+          <pm:border xmlns:pm="smNativeData" id="1660495317"/>
         </ext>
       </extLst>
     </border>
@@ -258,7 +267,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1660490174"/>
+          <pm:border xmlns:pm="smNativeData" id="1660495317"/>
         </ext>
       </extLst>
     </border>
@@ -285,7 +294,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1660490174" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1660495317" count="1">
         <pm:charStyle name="Обычный" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -561,405 +570,416 @@
     <col min="2" max="2" width="36.162162" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.45" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.45" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
       <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B40" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
       <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
       <c r="B47" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
       <c r="B55" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>16</v>
+    <row r="56" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
       <c r="B67" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="B68" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>37</v>
       </c>
-      <c r="B75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
+      <c r="B92" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1660490174" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1660495317" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -968,16 +988,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1660490174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1660490174" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1660490174" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1660490174" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1660495317" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1660495317" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1660495317" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1660495317" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1660490174" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1660495317" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/includes/resepts.xlsx
+++ b/includes/resepts.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="user"/>
+  <fileSharing readOnlyRecommended="0" userName="neshika"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1660495317" val="1050" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1660495317" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1660495317"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1660495317"/>
+      <pm:revision xmlns:pm="smNativeData" day="1661096724" val="1050" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1661096724" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1661096724" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1661096724"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>рецепт</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>чернила</t>
+  </si>
+  <si>
+    <t>мясо</t>
+  </si>
+  <si>
+    <t>трос</t>
+  </si>
+  <si>
+    <t>кожа</t>
   </si>
 </sst>
 </file>
@@ -174,7 +183,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1660495317" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1661096724" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -183,7 +192,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,28 +201,39 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1660495317" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1661096724" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFF9E"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1660495317" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1661096724" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1661096724" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -229,7 +249,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1660495317"/>
+          <pm:border xmlns:pm="smNativeData" id="1661096724"/>
         </ext>
       </extLst>
     </border>
@@ -248,7 +268,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1660495317"/>
+          <pm:border xmlns:pm="smNativeData" id="1661096724"/>
         </ext>
       </extLst>
     </border>
@@ -267,7 +287,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1660495317"/>
+          <pm:border xmlns:pm="smNativeData" id="1661096724"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1661096724"/>
         </ext>
       </extLst>
     </border>
@@ -275,16 +314,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -294,7 +332,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1660495317" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1661096724" count="1">
         <pm:charStyle name="Обычный" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -558,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -581,157 +619,229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.45" customHeight="1">
+      <c r="C14" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.45" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C15" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>6</v>
       </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>6</v>
       </c>
+      <c r="C33" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -739,177 +849,237 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>3</v>
       </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="C40" t="n">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
         <v>25</v>
+      </c>
+      <c r="C46" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
+      <c r="C55" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:3">
       <c r="B60" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
+      <c r="C60" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
       <c r="B61" t="s">
         <v>5</v>
       </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:3">
       <c r="B69" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
+      <c r="C72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="C73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
       </c>
+      <c r="C76" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -917,35 +1087,44 @@
       <c r="A80" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:3">
       <c r="B81" t="s">
         <v>19</v>
       </c>
+      <c r="C81" t="n">
+        <v>720</v>
+      </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:3">
       <c r="B83" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>27</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
       </c>
+      <c r="C85" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -953,33 +1132,63 @@
       <c r="A88" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:3">
       <c r="B91" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>37</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="n">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1660495317" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1661096724" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -988,16 +1197,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1660495317" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1660495317" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1660495317" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1660495317" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1661096724" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1661096724" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1661096724" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1661096724" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1660495317" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1661096724" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
